--- a/7830 panel pinout.xlsx
+++ b/7830 panel pinout.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Documents\Electronics\MODCOMP Panel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Documents\Electronics\MODCOMP Panel\7830\MODCOMP-7830\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="278">
   <si>
     <t>ADDRESS 1</t>
   </si>
@@ -505,9 +505,6 @@
     <t>BIT 7</t>
   </si>
   <si>
-    <t>BIT 8</t>
-  </si>
-  <si>
     <t>LOW BYTE OF ADDRESS</t>
   </si>
   <si>
@@ -884,6 +881,12 @@
   </si>
   <si>
     <t>M CLEAR</t>
+  </si>
+  <si>
+    <t>BIT 0</t>
+  </si>
+  <si>
+    <t>Gated through ENABLE switch</t>
   </si>
 </sst>
 </file>
@@ -1977,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1992,7 +1995,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2011,55 +2014,55 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>270</v>
-      </c>
       <c r="D2" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="22" t="s">
         <v>60</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H2" s="22"/>
       <c r="I2" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L2" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="M2" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="P2" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="Q2" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="R2" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="S2" s="21" t="s">
         <v>149</v>
-      </c>
-      <c r="S2" s="21" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -2077,21 +2080,21 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="21">
         <v>0</v>
       </c>
       <c r="L3" s="53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
@@ -2112,21 +2115,21 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="21">
         <v>1</v>
       </c>
       <c r="L4" s="53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M4" s="54"/>
       <c r="N4" s="54"/>
@@ -2150,18 +2153,18 @@
         <v>109</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="21">
         <v>2</v>
       </c>
       <c r="L5" s="53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M5" s="54"/>
       <c r="N5" s="54"/>
@@ -2185,18 +2188,18 @@
         <v>108</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H6" s="16"/>
       <c r="I6" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="21">
         <v>3</v>
       </c>
       <c r="L6" s="53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M6" s="54"/>
       <c r="N6" s="54"/>
@@ -2220,11 +2223,11 @@
         <v>110</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="21">
@@ -2266,10 +2269,10 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="16"/>
@@ -2320,11 +2323,11 @@
         <v>64</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="21">
@@ -2353,18 +2356,18 @@
         <v>63</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="21">
         <v>7</v>
       </c>
       <c r="L10" s="56" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M10" s="57"/>
       <c r="N10" s="57"/>
@@ -2385,14 +2388,14 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -2416,42 +2419,42 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L12" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="M12" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="N12" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="O12" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="P12" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="Q12" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="R12" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="R12" s="21" t="s">
+      <c r="S12" s="21" t="s">
         <v>149</v>
-      </c>
-      <c r="S12" s="21" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -2465,42 +2468,42 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="21">
         <v>0</v>
       </c>
       <c r="L13" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="M13" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="M13" s="23" t="s">
+      <c r="N13" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="O13" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="P13" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="P13" s="23" t="s">
+      <c r="Q13" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="Q13" s="23" t="s">
+      <c r="R13" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="R13" s="23" t="s">
+      <c r="S13" s="23" t="s">
         <v>247</v>
-      </c>
-      <c r="S13" s="23" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -2514,10 +2517,10 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>180</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="16"/>
@@ -2526,28 +2529,28 @@
         <v>1</v>
       </c>
       <c r="L14" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="M14" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="N14" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="N14" s="23" t="s">
+      <c r="O14" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="O14" s="23" t="s">
+      <c r="P14" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="P14" s="23" t="s">
+      <c r="Q14" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="Q14" s="23" t="s">
+      <c r="R14" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="R14" s="23" t="s">
+      <c r="S14" s="23" t="s">
         <v>247</v>
-      </c>
-      <c r="S14" s="23" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -2568,39 +2571,39 @@
         <v>62</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="21">
         <v>2</v>
       </c>
       <c r="L15" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M15" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="N15" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="O15" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="O15" s="26" t="s">
+      <c r="P15" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="Q15" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="Q15" s="26" t="s">
+      <c r="R15" s="26" t="s">
         <v>235</v>
       </c>
-      <c r="R15" s="26" t="s">
+      <c r="S15" s="26" t="s">
         <v>236</v>
-      </c>
-      <c r="S15" s="26" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -2617,39 +2620,39 @@
         <v>61</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="21">
         <v>3</v>
       </c>
       <c r="L16" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="M16" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="N16" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="N16" s="23" t="s">
+      <c r="O16" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="O16" s="23" t="s">
+      <c r="P16" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="P16" s="23" t="s">
+      <c r="Q16" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="Q16" s="23" t="s">
+      <c r="R16" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="R16" s="23" t="s">
+      <c r="S16" s="23" t="s">
         <v>247</v>
-      </c>
-      <c r="S16" s="23" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.2">
@@ -2663,10 +2666,10 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
@@ -2675,22 +2678,22 @@
         <v>4</v>
       </c>
       <c r="L17" s="59" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M17" s="60"/>
       <c r="N17" s="60"/>
       <c r="O17" s="61"/>
       <c r="P17" s="23" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S17" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.2">
@@ -2704,10 +2707,10 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
@@ -2716,28 +2719,28 @@
         <v>5</v>
       </c>
       <c r="L18" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="O18" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="M18" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="O18" s="23" t="s">
-        <v>223</v>
-      </c>
       <c r="P18" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q18" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="R18" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="Q18" s="23" t="s">
+      <c r="S18" s="23" t="s">
         <v>239</v>
-      </c>
-      <c r="R18" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="S18" s="23" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.2">
@@ -2751,10 +2754,10 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -2763,28 +2766,28 @@
         <v>6</v>
       </c>
       <c r="L19" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="O19" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="M19" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="N19" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="O19" s="23" t="s">
-        <v>223</v>
-      </c>
       <c r="P19" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="R19" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="Q19" s="23" t="s">
+      <c r="S19" s="23" t="s">
         <v>239</v>
-      </c>
-      <c r="R19" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="S19" s="23" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.2">
@@ -2798,10 +2801,10 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="16"/>
@@ -2810,28 +2813,28 @@
         <v>7</v>
       </c>
       <c r="L20" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="O20" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="M20" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="N20" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="O20" s="23" t="s">
-        <v>223</v>
-      </c>
       <c r="P20" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="R20" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="Q20" s="23" t="s">
+      <c r="S20" s="23" t="s">
         <v>239</v>
-      </c>
-      <c r="R20" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="S20" s="23" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.25">
@@ -2849,10 +2852,10 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H21" s="15"/>
       <c r="I21" s="16"/>
@@ -2876,31 +2879,31 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="4"/>
       <c r="K22" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L22" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="M22" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="M22" s="21" t="s">
+      <c r="N22" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="O22" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="O22" s="21" t="s">
-        <v>146</v>
-      </c>
       <c r="P22" s="44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="45"/>
       <c r="R22" s="46"/>
@@ -2917,16 +2920,16 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="4"/>
       <c r="K23" s="59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L23" s="60"/>
       <c r="M23" s="60"/>
@@ -2947,18 +2950,18 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L24" s="28">
         <v>0</v>
@@ -2987,18 +2990,18 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L25" s="28">
         <v>1</v>
@@ -3013,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q25" s="48"/>
       <c r="R25" s="49"/>
@@ -3029,18 +3032,18 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>186</v>
       </c>
       <c r="H26" s="15"/>
       <c r="I26" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L26" s="28">
         <v>0</v>
@@ -3055,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q26" s="48"/>
       <c r="R26" s="49"/>
@@ -3076,18 +3079,18 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H27" s="15"/>
       <c r="I27" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L27" s="28">
         <v>1</v>
@@ -3102,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q27" s="48"/>
       <c r="R27" s="49"/>
@@ -3118,18 +3121,18 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L28" s="28">
         <v>0</v>
@@ -3144,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q28" s="48"/>
       <c r="R28" s="49"/>
@@ -3161,7 +3164,7 @@
       <c r="E29" s="1"/>
       <c r="J29" s="4"/>
       <c r="K29" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L29" s="28">
         <v>1</v>
@@ -3176,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q29" s="48"/>
       <c r="R29" s="49"/>
@@ -3193,7 +3196,7 @@
       <c r="E30" s="1"/>
       <c r="J30" s="4"/>
       <c r="K30" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L30" s="28">
         <v>0</v>
@@ -3208,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q30" s="48"/>
       <c r="R30" s="49"/>
@@ -3225,7 +3228,7 @@
       <c r="E31" s="1"/>
       <c r="J31" s="4"/>
       <c r="K31" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L31" s="28">
         <v>0</v>
@@ -3255,7 +3258,7 @@
       <c r="E32" s="1"/>
       <c r="J32" s="4"/>
       <c r="K32" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L32" s="28">
         <v>1</v>
@@ -3270,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="P32" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q32" s="48"/>
       <c r="R32" s="49"/>
@@ -3291,7 +3294,7 @@
       <c r="E33" s="1"/>
       <c r="J33" s="4"/>
       <c r="K33" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L33" s="28">
         <v>0</v>
@@ -3306,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="P33" s="47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q33" s="48"/>
       <c r="R33" s="49"/>
@@ -3323,7 +3326,7 @@
       <c r="E34" s="1"/>
       <c r="J34" s="4"/>
       <c r="K34" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L34" s="28">
         <v>1</v>
@@ -3338,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="P34" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q34" s="48"/>
       <c r="R34" s="49"/>
@@ -3355,7 +3358,7 @@
       <c r="E35" s="1"/>
       <c r="J35" s="4"/>
       <c r="K35" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L35" s="12">
         <v>0</v>
@@ -3385,7 +3388,7 @@
       <c r="E36" s="1"/>
       <c r="J36" s="4"/>
       <c r="K36" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L36" s="26">
         <v>1</v>
@@ -3400,7 +3403,7 @@
         <v>1</v>
       </c>
       <c r="P36" s="47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q36" s="48"/>
       <c r="R36" s="49"/>
@@ -3417,7 +3420,7 @@
       <c r="E37" s="1"/>
       <c r="J37" s="4"/>
       <c r="K37" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L37" s="28">
         <v>0</v>
@@ -3432,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="P37" s="62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q37" s="63"/>
       <c r="R37" s="64"/>
@@ -3477,16 +3480,16 @@
       <c r="E40" s="1"/>
       <c r="J40" s="4"/>
       <c r="K40" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="M40" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="L40" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="M40" s="21" t="s">
-        <v>205</v>
-      </c>
       <c r="N40" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -3504,13 +3507,13 @@
         <v>1</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -3528,16 +3531,16 @@
         <v>3</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N42" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
@@ -3555,13 +3558,13 @@
         <v>5</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M43" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N43" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -3579,13 +3582,13 @@
         <v>7</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M44" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N44" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
@@ -3607,10 +3610,10 @@
         <v>9</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N45" s="18" t="s">
         <v>115</v>
@@ -3632,10 +3635,10 @@
       </c>
       <c r="L46" s="18"/>
       <c r="M46" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N46" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -3654,10 +3657,10 @@
       </c>
       <c r="L47" s="18"/>
       <c r="M47" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N47" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
@@ -3676,10 +3679,10 @@
       </c>
       <c r="L48" s="18"/>
       <c r="M48" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N48" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -3698,7 +3701,7 @@
       </c>
       <c r="L49" s="18"/>
       <c r="M49" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N49" s="18"/>
     </row>
@@ -3718,7 +3721,7 @@
       </c>
       <c r="L50" s="18"/>
       <c r="M50" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N50" s="18"/>
     </row>
@@ -3742,7 +3745,7 @@
       </c>
       <c r="L51" s="18"/>
       <c r="M51" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N51" s="18"/>
     </row>
@@ -3762,7 +3765,7 @@
       </c>
       <c r="L52" s="18"/>
       <c r="M52" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N52" s="18"/>
     </row>
@@ -3790,7 +3793,7 @@
       </c>
       <c r="L53" s="24"/>
       <c r="M53" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N53" s="19"/>
     </row>
@@ -3860,10 +3863,10 @@
         <v>92</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -3946,10 +3949,10 @@
         <v>90</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -3992,7 +3995,9 @@
       <c r="D63" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E63" s="1"/>
+      <c r="E63" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -4013,9 +4018,11 @@
         <v>105</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="E64" s="14"/>
+        <v>275</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -4036,7 +4043,7 @@
         <v>103</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
@@ -4059,7 +4066,7 @@
         <v>102</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
@@ -4073,7 +4080,7 @@
     </row>
     <row r="67" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
